--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>53.739573492878</v>
+        <v>0.008692112698</v>
       </c>
       <c r="R2">
-        <v>483.656161435902</v>
+        <v>0.07822901428200001</v>
       </c>
       <c r="S2">
-        <v>0.7193306443270595</v>
+        <v>0.003309267622421515</v>
       </c>
       <c r="T2">
-        <v>0.7193306443270595</v>
+        <v>0.003309267622421515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>0.3118341613862222</v>
+        <v>0.04961564137577777</v>
       </c>
       <c r="R3">
-        <v>2.806507452476</v>
+        <v>0.4465407723819999</v>
       </c>
       <c r="S3">
-        <v>0.004174053749475088</v>
+        <v>0.01888970395060778</v>
       </c>
       <c r="T3">
-        <v>0.004174053749475088</v>
+        <v>0.01888970395060778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H4">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>2.839714094085556</v>
+        <v>0.8752528716804445</v>
       </c>
       <c r="R4">
-        <v>25.55742684677</v>
+        <v>7.877275845124</v>
       </c>
       <c r="S4">
-        <v>0.0380109709890777</v>
+        <v>0.3332269254113562</v>
       </c>
       <c r="T4">
-        <v>0.03801097098907769</v>
+        <v>0.3332269254113562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>15.308801355549</v>
+        <v>0.015562429662</v>
       </c>
       <c r="R5">
-        <v>137.779212199941</v>
+        <v>0.140061866958</v>
       </c>
       <c r="S5">
-        <v>0.2049158418501671</v>
+        <v>0.005924939815669748</v>
       </c>
       <c r="T5">
-        <v>0.2049158418501671</v>
+        <v>0.005924939815669749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H6">
         <v>2.004951</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
-        <v>0.08883225009533331</v>
+        <v>0.08883225009533333</v>
       </c>
       <c r="R6">
-        <v>0.7994902508579997</v>
+        <v>0.799490250858</v>
       </c>
       <c r="S6">
-        <v>0.001189063394903332</v>
+        <v>0.03382028044056282</v>
       </c>
       <c r="T6">
-        <v>0.001189063394903331</v>
+        <v>0.03382028044056282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H7">
         <v>2.004951</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>0.8089498324483333</v>
+        <v>1.567059899617334</v>
       </c>
       <c r="R7">
-        <v>7.280548492034999</v>
+        <v>14.103539096556</v>
       </c>
       <c r="S7">
-        <v>0.01082819171016392</v>
+        <v>0.596612212516754</v>
       </c>
       <c r="T7">
-        <v>0.01082819171016392</v>
+        <v>0.596612212516754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H8">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>1.520853961818</v>
+        <v>0.000200942656</v>
       </c>
       <c r="R8">
-        <v>13.687685656362</v>
+        <v>0.001808483904</v>
       </c>
       <c r="S8">
-        <v>0.0203573789141979</v>
+        <v>7.650303770419251E-05</v>
       </c>
       <c r="T8">
-        <v>0.0203573789141979</v>
+        <v>7.650303770419251E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H9">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>0.008825046217333331</v>
+        <v>0.001147005233777778</v>
       </c>
       <c r="R9">
-        <v>0.07942541595599999</v>
+        <v>0.010323047104</v>
       </c>
       <c r="S9">
-        <v>0.0001181275877184207</v>
+        <v>0.0004366886871775371</v>
       </c>
       <c r="T9">
-        <v>0.0001181275877184207</v>
+        <v>0.0004366886871775371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H10">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>0.08036517876333334</v>
+        <v>0.02023393423644445</v>
       </c>
       <c r="R10">
-        <v>0.72328660887</v>
+        <v>0.182105408128</v>
       </c>
       <c r="S10">
-        <v>0.001075727477237035</v>
+        <v>0.007703478517746184</v>
       </c>
       <c r="T10">
-        <v>0.001075727477237035</v>
+        <v>0.007703478517746182</v>
       </c>
     </row>
   </sheetData>
